--- a/AAII_Financials/Quarterly/NRSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
   <si>
     <t>NRSN</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,39 +665,40 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,8 +711,11 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -739,8 +743,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,8 +775,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,8 +807,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,23 +823,24 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>2500</v>
+        <v>3100</v>
       </c>
       <c r="E12" s="3">
         <v>2500</v>
       </c>
       <c r="F12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G12" s="3">
         <v>500</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -839,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +885,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,8 +917,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +949,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,23 +962,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E17" s="3">
         <v>3100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -965,8 +992,11 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -974,14 +1004,14 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -994,8 +1024,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,8 +1040,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1016,13 +1050,13 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1036,20 +1070,23 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2800</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1065,8 +1102,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1094,23 +1134,26 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1123,8 +1166,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1152,8 +1198,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,23 +1230,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1210,23 +1262,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1239,8 +1294,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,8 +1422,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1364,13 +1434,13 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1384,23 +1454,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1486,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,23 +1518,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,28 +1550,31 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1587,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,17 +1617,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,8 +1647,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,16 +1679,19 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1618,8 +1711,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,46 +1743,52 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,8 +1807,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1734,16 +1839,19 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
+      <c r="E48" s="3">
+        <v>0</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1763,8 +1871,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1792,8 +1903,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,16 +1967,19 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1879,8 +1999,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,17 +2031,20 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1100</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,16 +2093,17 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
+      <c r="E57" s="3">
+        <v>0</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1992,8 +2123,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2021,17 +2155,20 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,17 +2187,20 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,8 +2219,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2108,37 +2251,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>1800</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,17 +2379,20 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E66" s="3">
         <v>100</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2489,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,17 +2553,20 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7500</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,17 +2681,20 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E76" s="3">
         <v>900</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,28 +2745,31 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,23 +2782,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2619,8 +2814,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,19 +2830,20 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2661,8 +2860,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,23 +3020,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2835,8 +3052,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,8 +3068,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2862,8 +3083,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2877,8 +3098,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,8 +3162,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2949,8 +3179,8 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2964,8 +3194,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,22 +3336,25 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
-      </c>
-      <c r="E100" s="3">
-        <v>500</v>
       </c>
       <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>500</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3122,52 +3368,58 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,6 +3430,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="92">
   <si>
     <t>NRSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,44 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,8 +715,11 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -746,8 +750,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -778,8 +785,11 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -810,8 +820,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,26 +837,27 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E12" s="3">
         <v>3100</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2500</v>
       </c>
       <c r="F12" s="3">
         <v>2500</v>
       </c>
       <c r="G12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -856,8 +870,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,8 +905,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,8 +940,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -952,8 +975,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,26 +989,27 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E17" s="3">
         <v>5600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -995,8 +1022,11 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1004,17 +1034,17 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1027,8 +1057,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,8 +1074,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1050,16 +1084,16 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1073,8 +1107,11 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1084,12 +1121,12 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2800</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1105,8 +1142,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1137,26 +1177,29 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1169,8 +1212,11 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1201,8 +1247,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,26 +1282,29 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,26 +1317,29 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1297,8 +1352,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1387,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1422,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1457,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,8 +1492,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1434,16 +1504,16 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1457,26 +1527,29 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,8 +1562,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,26 +1597,29 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1553,31 +1632,34 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1590,8 +1672,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1689,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,20 +1704,21 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E41" s="3">
         <v>11100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,31 +1737,34 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>5000</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1682,19 +1772,22 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1714,8 +1807,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1746,16 +1842,19 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1772,26 +1871,29 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E46" s="3">
         <v>11400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,8 +1912,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1842,19 +1947,22 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+      <c r="F48" s="3">
+        <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1874,8 +1982,11 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1906,8 +2017,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2052,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,19 +2087,22 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -2002,8 +2122,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,20 +2157,23 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E54" s="3">
         <v>11400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1100</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2066,8 +2192,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2209,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,19 +2224,20 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+      <c r="F57" s="3">
+        <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2126,8 +2257,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2158,20 +2292,23 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,20 +2327,23 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2222,13 +2362,16 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2254,17 +2397,20 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1800</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2280,14 +2426,17 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2467,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2502,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,20 +2537,23 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2572,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2589,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2622,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2657,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2524,8 +2692,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,20 +2727,23 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7500</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2588,8 +2762,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2797,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +2832,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,20 +2867,23 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E76" s="3">
         <v>9000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>900</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2716,8 +2902,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,31 +2937,34 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2785,26 +2977,29 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,8 +3012,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,22 +3029,23 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2863,8 +3062,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3097,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3132,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3167,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3202,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,23 +3237,26 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
-        <v>-400</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3055,8 +3272,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,19 +3289,20 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3101,8 +3322,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3357,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,19 +3392,22 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -3197,8 +3427,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3444,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3477,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3512,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3547,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,19 +3582,22 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>11900</v>
-      </c>
-      <c r="E100" s="3">
-        <v>700</v>
-      </c>
-      <c r="F100" s="3">
-        <v>500</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G100" s="3">
         <v>500</v>
@@ -3371,55 +3617,61 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>10400</v>
-      </c>
-      <c r="E102" s="3">
-        <v>300</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3433,6 +3685,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="92">
   <si>
     <t>NRSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,47 +665,48 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -718,8 +719,11 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -753,8 +757,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -788,8 +795,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,8 +833,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,29 +851,30 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E12" s="3">
         <v>1300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3100</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2500</v>
       </c>
       <c r="G12" s="3">
         <v>2500</v>
       </c>
       <c r="H12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I12" s="3">
         <v>500</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -873,8 +887,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,8 +925,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -943,8 +963,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1001,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,29 +1016,30 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E17" s="3">
         <v>3300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1025,8 +1052,11 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1034,20 +1064,20 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1060,8 +1090,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,8 +1108,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1084,19 +1118,19 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1110,8 +1144,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1121,15 +1158,15 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="F21" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>-2800</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1145,8 +1182,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1180,29 +1220,32 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1215,8 +1258,11 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1250,8 +1296,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,29 +1334,32 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1320,29 +1372,32 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1355,8 +1410,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,8 +1562,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1504,19 +1574,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1530,29 +1600,32 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1565,8 +1638,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,29 +1676,32 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1635,34 +1714,37 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1675,8 +1757,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,23 +1791,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E41" s="3">
         <v>8700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,17 +1827,20 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E42" s="3">
         <v>5000</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1766,8 +1856,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1775,22 +1865,25 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1810,8 +1903,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1845,19 +1941,22 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1874,29 +1973,32 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E46" s="3">
         <v>14000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,8 +2017,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1950,8 +2055,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1959,13 +2067,13 @@
         <v>300</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+      <c r="G48" s="3">
+        <v>0</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1985,8 +2093,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2020,8 +2131,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,22 +2207,25 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>0</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2125,8 +2245,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,23 +2283,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E54" s="3">
         <v>14400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1100</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2321,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,22 +2355,23 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="G57" s="3">
+        <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2260,8 +2391,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2295,23 +2429,26 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,23 +2467,26 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,8 +2505,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2374,7 +2517,7 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2400,20 +2543,23 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>700</v>
+      </c>
+      <c r="E62" s="3">
         <v>800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1800</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,14 +2575,17 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,23 +2695,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>100</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2733,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2695,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,23 +2901,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7500</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2765,8 +2939,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,23 +3053,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E76" s="3">
         <v>12100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>900</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,8 +3091,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,34 +3129,37 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2980,29 +3172,32 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3015,8 +3210,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,8 +3228,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3041,11 +3240,11 @@
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3065,8 +3264,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,8 +3454,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3251,11 +3468,11 @@
       <c r="E89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+      <c r="F89" s="3">
+        <v>-1500</v>
       </c>
       <c r="G89" s="3">
-        <v>-700</v>
+        <v>-400</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3275,8 +3492,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,8 +3510,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3301,8 +3522,8 @@
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3325,8 +3546,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,8 +3622,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3406,8 +3636,8 @@
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -3430,8 +3660,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,8 +3828,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3596,11 +3842,11 @@
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+      <c r="F100" s="3">
+        <v>11900</v>
       </c>
       <c r="G100" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3620,43 +3866,49 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3666,11 +3918,11 @@
       <c r="E102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+      <c r="F102" s="3">
+        <v>10400</v>
       </c>
       <c r="G102" s="3">
-        <v>-200</v>
+        <v>300</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3688,6 +3940,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="92">
   <si>
     <t>NRSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,51 +665,52 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -722,8 +723,11 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -760,8 +764,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -798,8 +805,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -836,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,32 +865,33 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E12" s="3">
         <v>1900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3100</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2500</v>
       </c>
       <c r="H12" s="3">
         <v>2500</v>
       </c>
       <c r="I12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J12" s="3">
         <v>500</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -890,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,8 +945,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -966,8 +986,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,32 +1043,33 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E17" s="3">
         <v>3600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1055,8 +1082,11 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1064,23 +1094,23 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1093,8 +1123,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,8 +1142,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1118,22 +1152,22 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1500</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1147,8 +1181,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1158,18 +1195,18 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <v>-4000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>-2800</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1185,8 +1222,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1223,32 +1263,35 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1261,8 +1304,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1299,8 +1345,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,32 +1386,35 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1375,32 +1427,35 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1468,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,8 +1632,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1574,22 +1644,22 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1500</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1603,32 +1673,35 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1641,8 +1714,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,32 +1755,35 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,37 +1796,40 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1760,8 +1842,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,26 +1878,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E41" s="3">
         <v>4300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,20 +1917,23 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E42" s="3">
         <v>6000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>5000</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1859,8 +1949,8 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -1868,25 +1958,28 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1906,8 +1999,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1944,8 +2040,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1953,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1976,32 +2075,35 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E46" s="3">
         <v>11100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2122,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2058,8 +2163,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2070,13 +2178,13 @@
         <v>300</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2096,8 +2204,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2134,8 +2245,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,25 +2327,28 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2248,8 +2368,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,26 +2409,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E54" s="3">
         <v>11500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1100</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,25 +2486,26 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2394,8 +2525,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2432,8 +2566,11 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2441,17 +2578,17 @@
         <v>600</v>
       </c>
       <c r="E59" s="3">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,26 +2607,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2508,8 +2648,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2520,7 +2663,7 @@
         <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2546,23 +2689,26 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
         <v>700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1800</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2578,14 +2724,17 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,26 +2853,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,26 +3075,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7500</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2942,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,26 +3239,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E76" s="3">
         <v>9800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>900</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,37 +3321,40 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3175,32 +3367,35 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3213,8 +3408,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,8 +3427,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3240,11 +3439,11 @@
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3267,8 +3466,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,8 +3671,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3468,12 +3685,12 @@
       <c r="E89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3">
         <v>-1500</v>
       </c>
-      <c r="G89" s="3">
-        <v>-400</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3495,8 +3712,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,8 +3731,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3522,8 +3743,8 @@
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3549,8 +3770,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,8 +3852,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3636,8 +3866,8 @@
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -3663,8 +3893,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,8 +4074,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3842,12 +4088,12 @@
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3">
         <v>11900</v>
       </c>
-      <c r="G100" s="3">
-        <v>700</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,8 +4115,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3880,11 +4129,11 @@
       <c r="E101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3895,20 +4144,23 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3918,12 +4170,12 @@
       <c r="E102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3">
         <v>10400</v>
       </c>
-      <c r="G102" s="3">
-        <v>300</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3943,6 +4195,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
   <si>
     <t>NRSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,55 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -726,8 +726,11 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,8 +770,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -808,8 +814,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,8 +858,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,35 +878,36 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="3">
         <v>1700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2500</v>
       </c>
       <c r="I12" s="3">
         <v>2500</v>
       </c>
       <c r="J12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -907,8 +920,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,8 +964,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -989,8 +1008,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1052,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,35 +1069,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E17" s="3">
         <v>3300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1085,8 +1111,11 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1094,26 +1123,26 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1126,8 +1155,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,8 +1175,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1152,25 +1185,25 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1500</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1184,8 +1217,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1198,18 +1234,18 @@
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>-4000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>-2800</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1225,8 +1261,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1266,35 +1305,38 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1307,8 +1349,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1348,8 +1393,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,35 +1437,38 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1430,35 +1481,38 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,8 +1525,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,8 +1701,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1644,25 +1713,25 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1500</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1676,35 +1745,38 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,8 +1789,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,35 +1833,38 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1799,40 +1877,43 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1845,8 +1926,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,29 +1964,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E41" s="3">
         <v>4400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,23 +2006,26 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E42" s="3">
         <v>4000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>6000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>5000</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1952,8 +2041,8 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -1961,28 +2050,31 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -2002,8 +2094,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2043,8 +2138,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2055,13 +2153,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -2078,35 +2176,38 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E46" s="3">
         <v>8900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2226,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2166,8 +2270,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2181,13 +2288,13 @@
         <v>300</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2207,8 +2314,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2248,8 +2358,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,8 +2446,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2341,17 +2460,17 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2371,8 +2490,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,29 +2534,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E54" s="3">
         <v>9200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1100</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2578,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,28 +2616,29 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2528,8 +2658,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2569,29 +2702,32 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="E59" s="3">
         <v>600</v>
       </c>
       <c r="F59" s="3">
+        <v>600</v>
+      </c>
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,29 +2746,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,13 +2790,16 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>200</v>
@@ -2666,7 +2808,7 @@
         <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2692,26 +2834,29 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1800</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2727,14 +2872,17 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,29 +3010,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3054,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,29 +3248,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7500</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3292,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,29 +3424,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E76" s="3">
         <v>7800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>900</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3468,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,40 +3512,43 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3370,35 +3561,38 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3411,8 +3605,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,31 +3625,32 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3469,8 +3667,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,31 +3887,34 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3715,8 +3931,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,31 +3951,32 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3773,8 +3993,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,31 +4081,34 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3896,8 +4125,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,31 +4319,34 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>11900</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -4118,72 +4363,78 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>10400</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -4198,6 +4449,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="92">
   <si>
     <t>NRSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,63 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -729,8 +731,14 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -773,8 +781,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -817,8 +831,14 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,8 +881,14 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,41 +905,43 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F12" s="3">
         <v>1500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>3100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>2500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>2500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>500</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -923,8 +951,14 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,8 +1001,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1011,8 +1051,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,8 +1101,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,41 +1122,43 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F17" s="3">
         <v>3400</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3600</v>
       </c>
       <c r="G17" s="3">
         <v>3300</v>
       </c>
       <c r="H17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J17" s="3">
         <v>5600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1114,8 +1168,14 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1123,32 +1183,32 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-3300</v>
+        <v>-3600</v>
       </c>
       <c r="F18" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="G18" s="3">
         <v>-3300</v>
       </c>
       <c r="H18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-5600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1158,8 +1218,14 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,8 +1242,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1185,31 +1253,31 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1220,8 +1288,14 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1238,20 +1312,20 @@
         <v>3</v>
       </c>
       <c r="H21" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>-4000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-2800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,8 +1338,14 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1308,41 +1388,47 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-4000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,8 +1438,14 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1396,8 +1488,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,41 +1538,47 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1484,41 +1588,47 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-4000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1528,8 +1638,14 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1688,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1738,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1788,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,8 +1838,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1713,31 +1853,31 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1748,41 +1888,47 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +1938,14 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,41 +1988,47 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,46 +2038,52 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1929,8 +2093,14 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2117,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,35 +2137,37 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F41" s="3">
         <v>3500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>8700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>11100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2009,29 +2183,35 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F42" s="3">
         <v>3500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>4000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>6000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>5000</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2044,43 +2224,49 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>600</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
@@ -2097,8 +2283,14 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2141,8 +2333,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2156,16 +2354,16 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2179,41 +2377,47 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F46" s="3">
         <v>7400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>8900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>11100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>14000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>11400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,8 +2433,14 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2273,8 +2483,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2291,16 +2507,16 @@
         <v>300</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
@@ -2317,8 +2533,14 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2361,8 +2583,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2633,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,8 +2683,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2463,20 +2703,20 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2493,8 +2733,14 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,35 +2783,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F54" s="3">
         <v>7700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>9200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>11500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>14400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>11400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2833,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2857,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,34 +2877,36 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
@@ -2661,8 +2923,14 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2705,35 +2973,41 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
-      </c>
-      <c r="F59" s="3">
-        <v>600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1000</v>
       </c>
       <c r="H59" s="3">
         <v>600</v>
       </c>
       <c r="I59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>600</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2749,35 +3023,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,8 +3073,14 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2802,19 +3088,19 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2837,32 +3123,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>500</v>
+      </c>
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1800</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2875,14 +3167,20 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3223,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3273,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,35 +3323,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F66" s="3">
         <v>2100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3373,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3397,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3443,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3493,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3207,8 +3543,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,35 +3593,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-20800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-17600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-14600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-11200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-8400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-7500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,8 +3643,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3693,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3743,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,35 +3793,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F76" s="3">
         <v>5600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>7800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>9800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>12100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>9000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>900</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3843,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,46 +3893,52 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3564,41 +3948,47 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3608,8 +3998,14 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,37 +4022,39 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3670,8 +4068,14 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +4118,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +4168,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4218,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4268,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,37 +4318,43 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+        <v>-4300</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
@@ -3934,8 +4368,14 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,8 +4392,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3978,11 +4420,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -3996,8 +4438,14 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4488,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,37 +4538,43 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+        <v>-6000</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -4128,8 +4588,14 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4612,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4658,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4708,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4758,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,37 +4808,43 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+        <v>3700</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -4366,40 +4858,46 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
@@ -4407,40 +4905,46 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+        <v>-6700</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
@@ -4452,6 +4956,12 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
